--- a/Assets/06.Table/GuildTowerTable2.xlsx
+++ b/Assets/06.Table/GuildTowerTable2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D6CCC-3808-4232-859B-847AD0AC9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6519D1-FB82-4F33-89A7-5D805EBD5BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable2" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>황금 전갈굴 19층</t>
+  </si>
+  <si>
+    <t>황금 전갈굴 20층</t>
   </si>
 </sst>
 </file>
@@ -1033,11 +1036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1283,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F20" si="1">F9*10000</f>
+        <f t="shared" ref="F10:F21" si="1">F9*10000</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="G10">
@@ -1344,7 +1347,7 @@
         <v>120</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" si="2">C3+0.03</f>
+        <f t="shared" ref="C13:C21" si="2">C3+0.03</f>
         <v>0.08</v>
       </c>
       <c r="D13">
@@ -1536,9 +1539,34 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="D21">
+        <v>4000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="G21">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:G2 D3:E4 F3:G8 A3:C20 E5:E8 D5:D20 E9:G20">
+  <conditionalFormatting sqref="A2:G2 D3:E4 F3:G8 A3:C20 E5:E8 D5:D20 E9:G20 A21:G21">
     <cfRule type="expression" dxfId="0" priority="51">
       <formula>$B2=5</formula>
     </cfRule>
@@ -1552,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50:O56"/>
+    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/GuildTowerTable2.xlsx
+++ b/Assets/06.Table/GuildTowerTable2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6519D1-FB82-4F33-89A7-5D805EBD5BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70177145-98C2-4B91-B1A9-A33BAEDD1678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable2" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>황금 전갈굴 20층</t>
+  </si>
+  <si>
+    <t>황금 전갈굴 21층</t>
+  </si>
+  <si>
+    <t>황금 전갈굴 22층</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1289,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F21" si="1">F9*10000</f>
+        <f t="shared" ref="F10:F23" si="1">F9*10000</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="G10">
@@ -1347,7 +1353,7 @@
         <v>120</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C21" si="2">C3+0.03</f>
+        <f t="shared" ref="C13:C23" si="2">C3+0.03</f>
         <v>0.08</v>
       </c>
       <c r="D13">
@@ -1564,9 +1570,59 @@
         <v>5800</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="D22">
+        <v>4200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="G22">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="D23">
+        <v>4400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="G23">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:G2 D3:E4 F3:G8 A3:C20 E5:E8 D5:D20 E9:G20 A21:G21">
+  <conditionalFormatting sqref="A2:G2 D3:E4 F3:G8 A3:C20 E5:E8 D5:D20 E9:G20 A21:G23">
     <cfRule type="expression" dxfId="0" priority="51">
       <formula>$B2=5</formula>
     </cfRule>
